--- a/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B31E90-EACD-45D8-9BF6-648553C26563}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01509670-9F8E-4154-946F-2A4BFC8DED35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -1934,8 +1934,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1950,10 +1953,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -21505,7 +21505,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -21536,16 +21536,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -21814,15 +21814,15 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="92" t="s">
+      <c r="A86" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
       <c r="H86" s="67"/>
       <c r="I86" s="67"/>
     </row>
@@ -26491,7 +26491,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f ca="1">NOW()</f>
-        <v>43860.697839699074</v>
+        <v>43861.595133680552</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -26536,7 +26536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E9A7A-76C4-4F5E-A5E5-551C242D3604}">
   <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -26554,17 +26554,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="71"/>
@@ -26755,16 +26755,16 @@
       <c r="H41" s="72"/>
     </row>
     <row r="42" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
@@ -26916,16 +26916,16 @@
       <c r="H28" s="75"/>
     </row>
     <row r="29" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
@@ -26993,16 +26993,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
@@ -27060,13 +27060,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
@@ -27104,24 +27104,24 @@
       <c r="C10" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -27260,16 +27260,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -27336,16 +27336,16 @@
     </row>
     <row r="46" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
       <c r="I62" s="67"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -27431,16 +27431,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -27469,16 +27469,16 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arcserver-svr\D\PPA_v2_SVR\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01509670-9F8E-4154-946F-2A4BFC8DED35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F50115A-9402-458A-BDD9-735F96DCF602}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="lookup_helper" sheetId="5" r:id="rId2"/>
-    <sheet name="0_0TitlePg" sheetId="4" r:id="rId3"/>
-    <sheet name="0_1UsingThisReport" sheetId="12" r:id="rId4"/>
+    <sheet name="0ATitlePg" sheetId="4" r:id="rId3"/>
+    <sheet name="0BUsingThisReport" sheetId="13" r:id="rId4"/>
     <sheet name="1ReduceVMT" sheetId="2" r:id="rId5"/>
     <sheet name="2ReduceCongestion" sheetId="3" r:id="rId6"/>
     <sheet name="3Multimodal" sheetId="6" r:id="rId7"/>
@@ -29,11 +29,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$119</definedName>
-    <definedName name="_Hlk20929805" localSheetId="7">'4EconProsperity'!$A$86</definedName>
+    <definedName name="_Hlk20929805" localSheetId="7">'4EconProsperity'!$A$68</definedName>
     <definedName name="_Hlk20929868" localSheetId="10">'7SGR'!$A$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'1ReduceVMT'!$A$1:$H$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'3Multimodal'!$A$1:$H$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'5Freight'!$A$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1ReduceVMT'!$A$1:$H$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'3Multimodal'!$A$1:$H$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'5Freight'!$A$1:$H$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'8SocioEconEquity'!$A$1:$H$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'1ReduceVMT'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'2ReduceCongestion'!$1:$2</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="308">
   <si>
     <t>data_item</t>
   </si>
@@ -776,16 +776,7 @@
     <t>Intersections per acre</t>
   </si>
   <si>
-    <t>Economic Prosperity Indicator 3: Access to services*:</t>
-  </si>
-  <si>
     <t>*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks.</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 4: K-12 Enrollment within 0.5mi of project location:</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 5: Education Facility (K12 schools and higher education) Access</t>
   </si>
   <si>
     <t>Support Ag Economy</t>
@@ -921,91 +912,118 @@
     <t>Project length with NPMRDS overlap</t>
   </si>
   <si>
+    <t>*Travel time reliability (TTR) = 80th percentile travel time / 50th percentile travel time. Per 2017 MAP-21 performance criteria, a TTR score greater than 1.5 is considered "unreliable" for the indicated time period. A TTR of 1.00 corresponds to perfect reliability (i.e., it always takes the same amount of time to travel the project segment).</t>
+  </si>
+  <si>
+    <t>Within 0.5mi of project</t>
+  </si>
+  <si>
+    <t>PDF report generated:</t>
+  </si>
+  <si>
+    <t>Equity Indicator 1: Population within 0.5mi of project living in designated Environmental justice (EJ) community</t>
+  </si>
+  <si>
+    <t>Equity Indicator 2: Share of population living in EJ community</t>
+  </si>
+  <si>
+    <t>Equity Indicator 3: Accessibility for people in EJ communities that are near project segment*</t>
+  </si>
+  <si>
+    <t>anyplace</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>Congestion indicator 1: Traffic congestion severity on project segment</t>
+  </si>
+  <si>
+    <t>Congestion Ratio</t>
+  </si>
+  <si>
+    <t>Congestion indicator 3: Total change in jobs plus dwelling units within 0.5mi of project :</t>
+  </si>
+  <si>
+    <t>The Promote Economic Prosperity performance outcome includes three suboutcomes: job access, school access, and supporting the agricultural economy. Each of these suboutcomes has its own set of performance indicators. In your application you can choose which of these suboutcomes you want to be evaluated on. You can choose to be evaluated on one, two, or all three .</t>
+  </si>
+  <si>
+    <t>Congested speed / Free-flow speed</t>
+  </si>
+  <si>
+    <t>Congestion indicator 2: Travel time reliability* on project segment</t>
+  </si>
+  <si>
+    <t>VMT Indicator 2: Land use diversity index*</t>
+  </si>
+  <si>
+    <t>Freight Performance Indicator 3: Change in share of industrial jobs within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>Using This Report</t>
+  </si>
+  <si>
+    <t>For arterials, the free-flow speed is the 60th percentile speed from 8pm-6am. It is supposed to approximate uncongested travel speed while excluding signal delay (i.e., delay not caused by demand exceeding supply).
+Congested speed is the average speed during the slowest four hours of a typical weekday and for most project segments is during the AM and PM peak periods.</t>
+  </si>
+  <si>
+    <t>What this report does</t>
+  </si>
+  <si>
+    <t>What this report does NOT do</t>
+  </si>
+  <si>
+    <t>This report provides base year data on observed 2016 data and, where not observable, on base-year modeled conditions. It is meant to provide rich, quantitative contextual information about each project to aid reviewers in deciding which projects most align with program goals.
+For example, if a project sponsor states that a project's goal is to reduce congestion, the report provides data on how congested the project corridor is under current conditions, and also shows expected job and housing growth in the corridor. Such data, along with any supplemental application narrative provided by the sponsor, are provided to help reviewers decide if the project has potential to be an effective congestion reduction tool.</t>
+  </si>
+  <si>
     <r>
-      <t>*Free-flow speed refers to the 85</t>
+      <t xml:space="preserve">This report does not in any way model the effects that the proposed project would have if it were built. Any future-year data shown is based on SACOG's travel demand model and MTP-SCS land use forecast and does not necessarily factor in the effects of the proposed project. 
+Future-year data are included to show how well the project aligns with the MTP's vision of the project area, but not to show the effects that the project itself will have on the project area. For example, the future-year population and job growth around a road capacity project answers the question "how many people is this road expected to serve in the future?", </t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>th</t>
+      <t>not</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> percentile speed between the hours of 8pm-6am. It is supposed to represent the speed when there is no traffic congestion.
-Congested speed is the average speed during the slowest four hours of a typical weekday and for most project segments is during the AM and PM peak periods.</t>
+      <t xml:space="preserve"> "how much growth will this road project cause?".
+Similarly, for performance outcomes like safety or congestion reduction, the report tells the reviewer if there currently is a problem with congestion or safety (e.g., high collision rate), but it does not say whether the proposed project will improve the issue (e.g., it won't say whether widening a congested segment will reduce congestion on the segment, nor will it say whether a proposed safety project will address the root cause of the safety issue).</t>
     </r>
   </si>
   <si>
-    <t>*Travel time reliability (TTR) = 80th percentile travel time / 50th percentile travel time. Per 2017 MAP-21 performance criteria, a TTR score greater than 1.5 is considered "unreliable" for the indicated time period. A TTR of 1.00 corresponds to perfect reliability (i.e., it always takes the same amount of time to travel the project segment).</t>
-  </si>
-  <si>
-    <t>Within 0.5mi of project</t>
-  </si>
-  <si>
-    <t>PDF report generated:</t>
-  </si>
-  <si>
-    <t>Equity Indicator 1: Population within 0.5mi of project living in designated Environmental justice (EJ) community</t>
-  </si>
-  <si>
-    <t>Equity Indicator 2: Share of population living in EJ community</t>
-  </si>
-  <si>
-    <t>Equity Indicator 3: Accessibility for people in EJ communities that are near project segment*</t>
-  </si>
-  <si>
-    <t>anyplace</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t>Congestion indicator 1: Traffic congestion severity on project segment</t>
-  </si>
-  <si>
-    <t>Congestion Ratio</t>
-  </si>
-  <si>
-    <t>Congestion indicator 3: Total change in jobs plus dwelling units within 0.5mi of project :</t>
-  </si>
-  <si>
-    <t>The Promote Economic Prosperity performance outcome includes three suboutcomes: job access, school access, and supporting the agricultural economy. Each of these suboutcomes has its own set of performance indicators. In your application you can choose which of these suboutcomes you want to be evaluated on. You can choose to be evaluated on one, two, or all three .</t>
-  </si>
-  <si>
-    <t>Congested speed / Free-flow speed</t>
-  </si>
-  <si>
-    <t>Congestion indicator 2: Travel time reliability* on project segment</t>
-  </si>
-  <si>
-    <t>VMT Indicator 2: Land use diversity index*</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 6: Change in Ag acreage share within 0.5mi of project location</t>
-  </si>
-  <si>
-    <t>Freight Performance Indicator 3: Change in share of industrial jobs within 0.5mi of project location</t>
-  </si>
-  <si>
-    <t>Using This Report</t>
-  </si>
-  <si>
-    <t>When we get to final layout, I think we should think about including a text box somewhere up front. On the title page maybe if we have the space. Which explains, like you said in documentation outline, what the tool is and what it is not. I.e., that the 2016 is base year without the project, while the 2040 is what the MTP envisions for the project corridor. That the reviewer then needs to make the step of thinking does the project help the corridor move towards this vision?   I noticed that the 2018 funding round Community Design reviewers thought the 2040 was a Project/No Project change. We need to emphasize that the 2040 indicators are about plan consistency, not about project/no-project benefits, especially as Community Design-type projects are generally lump sum in our plan. No need to tackle now, but put some thought into this and let’s talk about where best to try to emphasize this. Maybe it is laid out in the documentation and it is overkill to also include here.</t>
+    <t>VMT Indicator 3: Access to services*:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks. 
+Similar to the land use diversity index, if a project has more of these types of services within a feasible bikeing distance or shorter (15min) driving distance, then people who live or work near the project segment will on average generate less VMT in order to access these services.
+And in contrast to the diversity index,which shows services as a ratio of households to services, this indicator gives a better sense of the total amount of services available.
+</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 3: K-12 Enrollment within 0.5mi of project location:</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 4: Education Facility (K12 schools and higher education) Access</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 5: Change in Ag acreage share within 0.5mi of project location</t>
   </si>
 </sst>
 </file>
@@ -1226,14 +1244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1242,6 +1252,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1742,7 +1759,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1881,11 +1898,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1928,14 +1945,26 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2544,6 +2573,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12411111111111112"/>
+          <c:y val="3.8567493112947659E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2693,7 +2730,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FE6-4D93-BAA4-2F8C28BC2782}"/>
+              <c16:uniqueId val="{00000000-8390-4D02-8EE7-F8C606E9DD59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6689,6 +6726,746 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Base Year Service Accessibility by Mode</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17074817169565648"/>
+          <c:y val="0.13517461787864751"/>
+          <c:w val="0.80231580396512936"/>
+          <c:h val="0.67025258607379956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Project</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Services within 30-Min Walk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Services within 30-Min Biking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Services within 15-Min Drive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Services within 45-Min Transit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$D$51,lookup_helper!$D$52,lookup_helper!$D$53,lookup_helper!$D$54)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.5514457831325306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.925100401606429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.27309236947789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.080883534136547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09E2-4DA4-A13F-8D7437B6E42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Community Type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Services within 30-Min Walk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Services within 30-Min Biking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Services within 15-Min Drive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Services within 45-Min Transit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$F$51,lookup_helper!$F$52,lookup_helper!$F$53,lookup_helper!$F$54)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.6835892389165004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.011998510238037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.64461021519989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.241365850741079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09E2-4DA4-A13F-8D7437B6E42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Services within 30-Min Walk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Services within 30-Min Biking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Services within 15-Min Drive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Services within 45-Min Transit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$G$51,lookup_helper!$G$52,lookup_helper!$G$53,lookup_helper!$G$54)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.147198276435411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.10012353515299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520.32769799543757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.938922900995635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-09E2-4DA4-A13F-8D7437B6E42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1592004848"/>
+        <c:axId val="1528980992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1592004848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528980992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1528980992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Services Accessible</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592004848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30698834616859638"/>
+          <c:y val="0.93382306623436773"/>
+          <c:w val="0.42030532764482548"/>
+          <c:h val="6.6176933765632245E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;L=</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Free-flow vs. Congested</a:t>
             </a:r>
             <a:r>
@@ -7171,7 +7948,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7915,7 +8692,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8431,7 +9208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9186,746 +9963,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Base Year Service Accessibility by Mode</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17074817169565648"/>
-          <c:y val="0.13517461787864751"/>
-          <c:w val="0.80231580396512936"/>
-          <c:h val="0.67025258607379956"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Services within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Services within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Services within 15-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Services within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(lookup_helper!$D$51,lookup_helper!$D$52,lookup_helper!$D$53,lookup_helper!$D$54)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.5514457831325306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.925100401606429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>238.27309236947789</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.080883534136547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-C6EE-4C16-B6BC-53FADD444E3F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Services within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Services within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Services within 15-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Services within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(lookup_helper!$F$51,lookup_helper!$F$52,lookup_helper!$F$53,lookup_helper!$F$54)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.6835892389165004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.011998510238037</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>144.64461021519989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.241365850741079</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-C6EE-4C16-B6BC-53FADD444E3F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$B$51,lookup_helper!$B$52,lookup_helper!$B$53,lookup_helper!$B$54)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Services within 30-Min Walk</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Services within 30-Min Biking</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Services within 15-Min Drive</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Services within 45-Min Transit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(lookup_helper!$G$51,lookup_helper!$G$52,lookup_helper!$G$53,lookup_helper!$G$54)</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>17.147198276435411</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>140.10012353515299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>520.32769799543757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.938922900995635</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-C6EE-4C16-B6BC-53FADD444E3F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1592004848"/>
-        <c:axId val="1528980992"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1592004848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1528980992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1528980992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total Services Accessible</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1592004848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30698834616859638"/>
-          <c:y val="0.93382306623436773"/>
-          <c:w val="0.42030532764482548"/>
-          <c:h val="6.6176933765632245E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter>
-      <c:oddHeader>&amp;L=</c:oddHeader>
-    </c:headerFooter>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -10002,9 +10039,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17074817169565648"/>
+          <c:x val="8.8273939984306091E-2"/>
           <c:y val="0.13517461787864751"/>
-          <c:w val="0.80231580396512936"/>
+          <c:w val="0.88479007134417498"/>
           <c:h val="0.67025258607379956"/>
         </c:manualLayout>
       </c:layout>
@@ -10136,7 +10173,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4136-4FB2-B332-E360D914229A}"/>
+              <c16:uniqueId val="{00000000-2D28-498E-9EE0-FF05460081AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10264,7 +10301,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4136-4FB2-B332-E360D914229A}"/>
+              <c16:uniqueId val="{00000001-2D28-498E-9EE0-FF05460081AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10392,7 +10429,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4136-4FB2-B332-E360D914229A}"/>
+              <c16:uniqueId val="{00000002-2D28-498E-9EE0-FF05460081AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19475,6 +19512,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CE9B93-48BE-4AFF-8C42-F54269144BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19520,13 +19595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19556,13 +19631,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19634,22 +19709,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8191F7D-D208-4E3E-A62D-9353B734C8EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E35834-2BA2-4D7A-BF50-6E7914C6A197}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19672,22 +19747,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06621BC6-AB07-4C13-AD66-3D890573E97A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3DBF91-775F-4758-8D58-B7242F1390B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19707,42 +19782,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4000EC27-DEA6-4571-95D8-5B4D47A5C96F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19751,15 +19790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20331,10 +20370,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -20371,7 +20410,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>1.41</v>
@@ -21506,7 +21545,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21532,24 +21571,24 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
+      <c r="A5" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -21560,55 +21599,55 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B35" s="35" t="s">
+    <row r="37" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C37" s="35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="B36" s="47">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="B38" s="47">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="C36" s="47">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="C38" s="47">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -21627,7 +21666,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21653,12 +21692,12 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -21669,7 +21708,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -21689,8 +21728,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21720,12 +21759,12 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21736,12 +21775,12 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>235</v>
@@ -21766,12 +21805,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -21810,19 +21849,19 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="93" t="s">
-        <v>240</v>
-      </c>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
+      <c r="A86" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" s="97"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
       <c r="H86" s="67"/>
       <c r="I86" s="67"/>
     </row>
@@ -22569,7 +22608,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="65" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="63">
         <f t="array" ref="Q18">MAX(IF(ISNUMBER(SEARCH("calc_len",import!$A:$A)),import!$B:$B))</f>
@@ -22615,7 +22654,7 @@
         <v>171</v>
       </c>
       <c r="P19" s="62" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="66">
         <f>(Q18/5280)/D118</f>
@@ -25356,7 +25395,7 @@
         <v>71</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
         <v>216</v>
@@ -25386,7 +25425,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P96" s="28"/>
     </row>
@@ -25395,7 +25434,7 @@
         <v>72</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
         <v>216</v>
@@ -25425,7 +25464,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P97" s="28"/>
     </row>
@@ -25434,7 +25473,7 @@
         <v>73</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C98" t="s">
         <v>216</v>
@@ -25464,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P98" s="28"/>
     </row>
@@ -25473,7 +25512,7 @@
         <v>74</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C99" t="s">
         <v>216</v>
@@ -25503,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P99" s="28"/>
     </row>
@@ -25512,7 +25551,7 @@
         <v>75</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
         <v>216</v>
@@ -25542,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P100" s="28"/>
     </row>
@@ -25551,7 +25590,7 @@
         <v>76</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s">
         <v>216</v>
@@ -25581,7 +25620,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P101" s="28"/>
     </row>
@@ -25590,7 +25629,7 @@
         <v>77</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C102" t="s">
         <v>216</v>
@@ -25620,7 +25659,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P102" s="28"/>
     </row>
@@ -25629,7 +25668,7 @@
         <v>78</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
         <v>216</v>
@@ -25659,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P103" s="28"/>
     </row>
@@ -25668,7 +25707,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
         <v>216</v>
@@ -25698,7 +25737,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P104" s="28"/>
     </row>
@@ -25707,7 +25746,7 @@
         <v>80</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
         <v>216</v>
@@ -25737,7 +25776,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P105" s="28"/>
     </row>
@@ -25746,7 +25785,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s">
         <v>216</v>
@@ -25776,7 +25815,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P106" s="28"/>
     </row>
@@ -25785,7 +25824,7 @@
         <v>82</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s">
         <v>216</v>
@@ -25815,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P107" s="28"/>
     </row>
@@ -25824,7 +25863,7 @@
         <v>83</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C108" t="s">
         <v>216</v>
@@ -25854,7 +25893,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P108" s="28"/>
     </row>
@@ -25863,7 +25902,7 @@
         <v>84</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
         <v>216</v>
@@ -25893,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P109" s="28"/>
     </row>
@@ -25902,7 +25941,7 @@
         <v>85</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C110" t="s">
         <v>216</v>
@@ -25932,7 +25971,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P110" s="28"/>
     </row>
@@ -25941,7 +25980,7 @@
         <v>86</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
         <v>216</v>
@@ -25971,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P111" s="28"/>
     </row>
@@ -26012,10 +26051,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
         <v>204</v>
@@ -26187,10 +26226,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
         <v>204</v>
@@ -26269,8 +26308,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26282,40 +26321,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="str">
+      <c r="A2" s="94" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -26328,12 +26367,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="31" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
@@ -26341,7 +26380,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="71"/>
@@ -26352,60 +26391,60 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="31" t="str">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="32">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
       <c r="E35" s="32">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="32">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
+      <c r="A37" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="48">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
@@ -26416,12 +26455,12 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="31" t="str">
         <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -26477,7 +26516,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -26491,7 +26530,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="58">
         <f ca="1">NOW()</f>
-        <v>43861.595133680552</v>
+        <v>43900.449025462964</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -26533,11 +26572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E9A7A-76C4-4F5E-A5E5-551C242D3604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF629FD-B5F5-4929-9892-27FAE594A353}">
   <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26550,21 +26589,54 @@
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="71"/>
@@ -26696,8 +26768,9 @@
       <c r="A42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:I4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26707,10 +26780,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCAFD4-91AA-4A54-9D7E-20D5302EC54C}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:H42"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26737,12 +26810,12 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26755,16 +26828,16 @@
       <c r="H41" s="72"/>
     </row>
     <row r="42" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
+      <c r="A42" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
@@ -26786,9 +26859,27 @@
       <c r="G44" s="72"/>
       <c r="H44" s="72"/>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A66:H66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
@@ -26799,10 +26890,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214DCB8-A904-4048-8891-634DB5071E9F}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26833,7 +26924,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -26862,7 +26953,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B22" s="77" t="str">
         <f>lookup_helper!Q7</f>
@@ -26875,7 +26966,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B23" s="86">
         <f>IFERROR(lookup_helper!Q9/lookup_helper!Q8,0)</f>
@@ -26915,17 +27006,17 @@
       <c r="G28" s="75"/>
       <c r="H28" s="75"/>
     </row>
-    <row r="29" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
+    <row r="29" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
@@ -26987,31 +27078,31 @@
       <c r="G36" s="75"/>
       <c r="H36" s="75"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="93" t="s">
-        <v>284</v>
-      </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>295</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A61:H61"/>
     <mergeCell ref="A29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27028,8 +27119,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27060,13 +27151,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
@@ -27104,24 +27195,24 @@
       <c r="C10" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -27203,7 +27294,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -27228,10 +27319,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8A5C7-BD60-4FDC-AB65-BF967BB22109}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27260,16 +27351,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
+      <c r="A5" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -27286,7 +27377,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -27329,59 +27420,52 @@
         <v>992.65999999999894</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="93" t="s">
-        <v>240</v>
-      </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="67"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="55">
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="55">
         <f>lookup_helper!D55</f>
         <v>657</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
-        <v>300</v>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="91"/>
+    </row>
+    <row r="66" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="92"/>
+    </row>
+    <row r="67" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A62:H62"/>
+  <mergeCells count="1">
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27393,10 +27477,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD69D76-764D-4B96-9AC3-904BF933FEFC}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27427,20 +27511,20 @@
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="A5" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -27469,66 +27553,66 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
+      <c r="A8" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B28" s="35" t="s">
+    <row r="47" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C47" s="35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
-        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42">
+        <f>VLOOKUP($A46,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>7.072357263990954E-2</v>
       </c>
-      <c r="B29" s="42">
-        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="B48" s="42">
+        <f>VLOOKUP($A46,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>0.1343871705182399</v>
       </c>
-      <c r="C29" s="42">
-        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="C48" s="42">
+        <f>VLOOKUP($A46,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>0.13021497769289109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>301</v>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
@@ -8,41 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arcserver-svr\D\PPA_v2_SVR\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F50115A-9402-458A-BDD9-735F96DCF602}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC7603-95FA-452D-8394-CA78E45C3D9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="1050" windowWidth="22815" windowHeight="13080" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="import" sheetId="1" r:id="rId1"/>
-    <sheet name="lookup_helper" sheetId="5" r:id="rId2"/>
-    <sheet name="0ATitlePg" sheetId="4" r:id="rId3"/>
-    <sheet name="0BUsingThisReport" sheetId="13" r:id="rId4"/>
-    <sheet name="1ReduceVMT" sheetId="2" r:id="rId5"/>
-    <sheet name="2ReduceCongestion" sheetId="3" r:id="rId6"/>
-    <sheet name="3Multimodal" sheetId="6" r:id="rId7"/>
-    <sheet name="4EconProsperity" sheetId="7" r:id="rId8"/>
-    <sheet name="5Freight" sheetId="8" r:id="rId9"/>
-    <sheet name="6Safety" sheetId="9" r:id="rId10"/>
-    <sheet name="7SGR" sheetId="10" r:id="rId11"/>
-    <sheet name="8SocioEconEquity" sheetId="11" r:id="rId12"/>
+    <sheet name="0ATitlePg" sheetId="4" r:id="rId1"/>
+    <sheet name="0BUsingThisReport" sheetId="14" r:id="rId2"/>
+    <sheet name="1ReduceVMT" sheetId="2" r:id="rId3"/>
+    <sheet name="2ReduceCongestion" sheetId="3" r:id="rId4"/>
+    <sheet name="3Multimodal" sheetId="6" r:id="rId5"/>
+    <sheet name="4EconProsperity" sheetId="7" r:id="rId6"/>
+    <sheet name="5Freight" sheetId="8" r:id="rId7"/>
+    <sheet name="6Safety" sheetId="9" r:id="rId8"/>
+    <sheet name="7SGR" sheetId="10" r:id="rId9"/>
+    <sheet name="8SocioEconEquity" sheetId="11" r:id="rId10"/>
+    <sheet name="import" sheetId="1" r:id="rId11"/>
+    <sheet name="lookup_helper" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$119</definedName>
-    <definedName name="_Hlk20929805" localSheetId="7">'4EconProsperity'!$A$68</definedName>
-    <definedName name="_Hlk20929868" localSheetId="10">'7SGR'!$A$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'1ReduceVMT'!$A$1:$H$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'3Multimodal'!$A$1:$H$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'5Freight'!$A$1:$H$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'8SocioEconEquity'!$A$1:$H$88</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1ReduceVMT'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2ReduceCongestion'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'3Multimodal'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'4EconProsperity'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'5Freight'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'6Safety'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'7SGR'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">'8SocioEconEquity'!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">import!$A$1:$G$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">lookup_helper!$A$3:$I$119</definedName>
+    <definedName name="_Hlk20929805" localSheetId="5">'4EconProsperity'!$A$68</definedName>
+    <definedName name="_Hlk20929868" localSheetId="8">'7SGR'!$A$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1ReduceVMT'!$A$1:$H$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'3Multimodal'!$A$1:$H$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'5Freight'!$A$1:$H$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'8SocioEconEquity'!$A$1:$H$88</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1ReduceVMT'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'2ReduceCongestion'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'3Multimodal'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'4EconProsperity'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'5Freight'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'6Safety'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'7SGR'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'8SocioEconEquity'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="310">
   <si>
     <t>data_item</t>
   </si>
@@ -518,9 +518,6 @@
     <t>Pct of collisions that are fatal</t>
   </si>
   <si>
-    <t>Bike/ped collisions per project centerline mile</t>
-  </si>
-  <si>
     <t>Collisions with bike/ped</t>
   </si>
   <si>
@@ -812,9 +809,6 @@
     <t>&lt;insert collision heat map, with heat parameters scaled to zoom level?&gt;</t>
   </si>
   <si>
-    <t>Safety Indicator 2: Collisions per million 100 MVMT*</t>
-  </si>
-  <si>
     <t>Safety Indicator 3: Fatalities and bike/pedestrian involvement</t>
   </si>
   <si>
@@ -876,9 +870,6 @@
   </si>
   <si>
     <t>*The land use diversity index ranges from 0 to 1 and measures an area’s ratio of households to K-12 student enrollment, park acreage, and employment in the retail, service, and food sectors. A score of 1 indicates an “ideal” ratio of households to amenities that people use on a daily basis like shopping, restaurants, schools, etc. that in turn increases the likelihood that people living in those households will either walk or bike to these destinations, or drive a shorter distance.</t>
-  </si>
-  <si>
-    <t>On project segment</t>
   </si>
   <si>
     <t>Freight Performance Indicator 1: Percent of project that is on federally-recognized STAA truck route*:</t>
@@ -918,9 +909,6 @@
     <t>Within 0.5mi of project</t>
   </si>
   <si>
-    <t>PDF report generated:</t>
-  </si>
-  <si>
     <t>Equity Indicator 1: Population within 0.5mi of project living in designated Environmental justice (EJ) community</t>
   </si>
   <si>
@@ -976,13 +964,43 @@
     <t>What this report does NOT do</t>
   </si>
   <si>
-    <t>This report provides base year data on observed 2016 data and, where not observable, on base-year modeled conditions. It is meant to provide rich, quantitative contextual information about each project to aid reviewers in deciding which projects most align with program goals.
-For example, if a project sponsor states that a project's goal is to reduce congestion, the report provides data on how congested the project corridor is under current conditions, and also shows expected job and housing growth in the corridor. Such data, along with any supplemental application narrative provided by the sponsor, are provided to help reviewers decide if the project has potential to be an effective congestion reduction tool.</t>
+    <t>VMT Indicator 3: Access to services*:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks. 
+Similar to the land use diversity index, if a project has more of these types of services within a feasible bikeing distance or shorter (15min) driving distance, then people who live or work near the project segment will on average generate less VMT in order to access these services.
+And in contrast to the diversity index,which shows services as a ratio of households to services, this indicator gives a better sense of the total amount of services available.
+</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 3: K-12 Enrollment within 0.5mi of project location:</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 4: Education Facility (K12 schools and higher education) Access</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 5: Change in Ag acreage share within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>Safety Indicator 4: Bike + Ped Fatalities per Project Centerline Mile</t>
+  </si>
+  <si>
+    <t>Bike/ped collisions per road centerline mile</t>
+  </si>
+  <si>
+    <t>Safety Indicator 2: Collisions per 100 million VMT</t>
+  </si>
+  <si>
+    <t>Report generated:</t>
+  </si>
+  <si>
+    <t>This report provides base year data from 2016-2018 and, where not observed data are not available, on base-year modeled data. It aims to provide rich, quantitative contextual information about each project to aid reviewers in deciding which projects most align with program goals.
+For example, if a sponsor states that a project's goal is to reduce congestion, the report provides data on how congested the project corridor is under current conditions along with expected job and housing growth in the corridor. Such data, along with any supplemental application narrative provided by the sponsor, are provided to help reviewers decide if the project has potential to be an effective congestion reduction tool.</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">This report does not in any way model the effects that the proposed project would have if it were built. Any future-year data shown is based on SACOG's travel demand model and MTP-SCS land use forecast and does not necessarily factor in the effects of the proposed project. 
-Future-year data are included to show how well the project aligns with the MTP's vision of the project area, but not to show the effects that the project itself will have on the project area. For example, the future-year population and job growth around a road capacity project answers the question "how many people is this road expected to serve in the future?", </t>
+Future-year data are included to show how well the project aligns with the MTP's vision of the project area, but not to show the effects that the project itself will have. For example, the future-year population and job growth around a road capacity project answers the question "how many people is this road expected to serve in the future?", </t>
     </r>
     <r>
       <rPr>
@@ -1004,26 +1022,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "how much growth will this road project cause?".
-Similarly, for performance outcomes like safety or congestion reduction, the report tells the reviewer if there currently is a problem with congestion or safety (e.g., high collision rate), but it does not say whether the proposed project will improve the issue (e.g., it won't say whether widening a congested segment will reduce congestion on the segment, nor will it say whether a proposed safety project will address the root cause of the safety issue).</t>
+Similarly, for performance outcomes like safety or congestion reduction, the report tells the reviewer if there currently is a problem with congestion or safety (e.g., high collision rate), but it does not say whether the proposed project will improve the issue, e.g., it won't say whether widening a congested segment will reduce its congestion, nor will it say whether a proposed safety project will address the root cause of the safety issue.</t>
     </r>
   </si>
   <si>
-    <t>VMT Indicator 3: Access to services*:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks. 
-Similar to the land use diversity index, if a project has more of these types of services within a feasible bikeing distance or shorter (15min) driving distance, then people who live or work near the project segment will on average generate less VMT in order to access these services.
-And in contrast to the diversity index,which shows services as a ratio of households to services, this indicator gives a better sense of the total amount of services available.
-</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 3: K-12 Enrollment within 0.5mi of project location:</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 4: Education Facility (K12 schools and higher education) Access</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 5: Change in Ag acreage share within 0.5mi of project location</t>
+    <t>*The on-project collision rate will be -1.0 if the user did not provide an average daily traffic value.</t>
+  </si>
+  <si>
+    <t>On project segment*</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1044,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,6 +1265,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1759,7 +1772,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1956,6 +1969,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2233,7 +2249,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83C4-4D02-8672-A14EFE4AD4B7}"/>
+              <c16:uniqueId val="{00000000-AE5B-4CDB-B8C1-A06FFC3AAC86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2350,7 +2366,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83C4-4D02-8672-A14EFE4AD4B7}"/>
+              <c16:uniqueId val="{00000000-35B7-4846-B2B6-AF6AF72A33E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2559,355 +2575,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12411111111111112"/>
-          <c:y val="3.8567493112947659E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Share of land that is Ag use within project area</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$D$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.1236248623319337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8390-4D02-8EE7-F8C606E9DD59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1814706704"/>
-        <c:axId val="1818653760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1814706704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818653760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1818653760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1814706704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3262,7 +2929,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3889,7 +3556,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4310,7 +3977,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4737,7 +4404,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5172,7 +4839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5607,7 +5274,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5796,7 +5463,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE5B-4CDB-B8C1-A06FFC3AAC86}"/>
+              <c16:uniqueId val="{00000000-83C4-4D02-8672-A14EFE4AD4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5913,7 +5580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35B7-4846-B2B6-AF6AF72A33E8}"/>
+              <c16:uniqueId val="{00000001-83C4-4D02-8672-A14EFE4AD4B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6121,7 +5788,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6691,7 +6358,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7431,7 +7098,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7948,7 +7615,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8692,7 +8359,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9208,7 +8875,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9963,7 +9630,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10703,6 +10370,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12411111111111112"/>
+          <c:y val="3.8567493112947659E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of land that is Ag use within project area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>lookup_helper!$D$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lookup_helper!$D$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.1236248623319337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8390-4D02-8EE7-F8C606E9DD59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1814706704"/>
+        <c:axId val="1818653760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814706704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818653760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1818653760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814706704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19395,49 +19411,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D984AF2-5EEA-4351-BA05-7DC493C2A994}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -19553,7 +19526,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19668,7 +19641,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19785,7 +19758,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19826,7 +19799,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19867,7 +19840,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20014,6 +19987,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D984AF2-5EEA-4351-BA05-7DC493C2A994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20318,1412 +20334,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FC8CB5-C6A7-44CA-A479-35B28693DBAA}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="str">
+        <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
+        <v>Project Performance Assessment Report: test_project_YubaCity</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="31" t="str">
+        <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
+        <v>test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="31" t="str">
+        <f>VLOOKUP(A32,lookup_helper!$B$112:$D$119,3,FALSE)</f>
+        <v>anyplace</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="31" t="str">
+        <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
+        <v>Freeway</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="32">
+        <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="32">
+        <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="32">
+        <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="48">
+        <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1013.770763052209</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>1364.000856776242</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3842.410877719361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2709.1952208835341</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>7127.5982283250496</v>
-      </c>
-      <c r="E11" s="2">
-        <v>37354.023709342597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45512.183253012037</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>115470.05312773889</v>
-      </c>
-      <c r="E12" s="2">
-        <v>475047.24569611409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6491.7790361445777</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>3942.7378655082048</v>
-      </c>
-      <c r="E13" s="2">
-        <v>22213.193547074628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.2211646586345379</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>2.8359657898456958</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.6382414187566914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5.2928514056224891</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>11.725412674938291</v>
-      </c>
-      <c r="E15" s="2">
-        <v>38.186082797940898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>94.170281124498004</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>163.7723231043594</v>
-      </c>
-      <c r="E16" s="2">
-        <v>492.55290133648589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10.89180722891566</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>6.3673234849555804</v>
-      </c>
-      <c r="E17" s="2">
-        <v>19.46065842045931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7.5514457831325306</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>9.6835892389165004</v>
-      </c>
-      <c r="E18" s="2">
-        <v>17.147198276435411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>19.925100401606429</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>43.011998510238037</v>
-      </c>
-      <c r="E19" s="2">
-        <v>140.10012353515299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>238.27309236947789</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>144.64461021519989</v>
-      </c>
-      <c r="E20" s="2">
-        <v>520.32769799543757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>51.080883534136547</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>25.241365850741079</v>
-      </c>
-      <c r="E21" s="2">
-        <v>77.938922900995635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2">
-        <v>56</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>1498</v>
-      </c>
-      <c r="E22" s="2">
-        <v>55020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>41.285465803940781</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>61.135362311155802</v>
-      </c>
-      <c r="E23">
-        <v>63.369834818958772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <v>41</v>
-      </c>
-      <c r="E24">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.474480921569314</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>1.6732642555122741</v>
-      </c>
-      <c r="E25">
-        <v>1.2819088722919141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3.5714285714285719E-2</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1">
-        <v>2.7369826435246991E-2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2.022900763358779E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>202</v>
-      </c>
-      <c r="E27">
-        <v>6723</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2.1232525270598122</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
-        <v>0.28524510017006321</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.40140092908768138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>0.13484646194926569</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.1221919302071974</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>7.8499999999999988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1175.845221386116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>145.36370361752071</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>0.1236248623319337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1021114271418558</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5">
-        <v>5.8844134774233253E-2</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1.480071598380431E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="7">
-        <v>7460.2525126650989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="7">
-        <v>63.359266107107317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="7">
-        <v>39.857150159123393</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="7">
-        <v>1.1478152403679189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="7">
-        <v>1.162867114075685</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1.323087321541778</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1.2010105753672351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="7">
-        <v>7460.2525126827086</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="7">
-        <v>66.431990942696686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="7">
-        <v>54.409268026535017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="7">
-        <v>1.081819835884438</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="7">
-        <v>1.091630634013671</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="7">
-        <v>1.10910333948567</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="7">
-        <v>1.0947187607200981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1.872619731652339</v>
-      </c>
-      <c r="D65">
-        <v>7.4149284958128156E-2</v>
-      </c>
-      <c r="E65">
-        <v>7.332683167880813E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0.33368336973414081</v>
-      </c>
-      <c r="D66">
-        <v>9.9496332560479198E-2</v>
-      </c>
-      <c r="E66">
-        <v>0.1052465714535069</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="85">
-        <v>1.3624389724527719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="85">
-        <v>1.475654647382425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="2">
-        <v>2.8380936198351971</v>
-      </c>
-      <c r="D70">
-        <v>1.4432109489386511</v>
-      </c>
-      <c r="E70">
-        <v>0.38506745756398192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="2">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0.69863722615145762</v>
-      </c>
-      <c r="D73">
-        <v>0.34730153421679688</v>
-      </c>
-      <c r="E73">
-        <v>0.3746385676273582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1013.770763052209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="2">
-        <v>2709.1952208835341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="2">
-        <v>45512.183253012037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="2">
-        <v>6491.7790361445777</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="2">
-        <v>272.66024096385541</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="2">
-        <v>795.25333333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="2">
-        <v>12386.82514056225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1514.9185542168671</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="2">
-        <v>1.2211646586345379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="2">
-        <v>5.2928514056224891</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" s="2">
-        <v>94.170281124498004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="2">
-        <v>10.89180722891566</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="2">
-        <v>7.5514457831325306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="2">
-        <v>19.925100401606429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="2">
-        <v>238.27309236947789</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" s="2">
-        <v>51.080883534136547</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="2">
-        <v>5797</v>
-      </c>
-      <c r="C90" s="2">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1916</v>
-      </c>
-      <c r="C91" s="2">
-        <v>2072.611115859987</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="2">
-        <v>1769</v>
-      </c>
-      <c r="C92" s="2">
-        <v>2761.6599999999989</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="2">
-        <v>657</v>
-      </c>
-      <c r="C93" s="2">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="2">
-        <v>125.11</v>
-      </c>
-      <c r="C94" s="2">
-        <v>134.03</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="2">
-        <v>19593</v>
-      </c>
-      <c r="C95" s="2">
-        <v>21044</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="2">
-        <v>6806</v>
-      </c>
-      <c r="C96" s="2">
-        <v>7661</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="2">
-        <v>10373</v>
-      </c>
-      <c r="C97" s="2">
-        <v>10477</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="2">
-        <v>184</v>
-      </c>
-      <c r="C98" s="2">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="2">
-        <v>381</v>
-      </c>
-      <c r="C99" s="2">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="2">
-        <v>1526</v>
-      </c>
-      <c r="C100" s="2">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="1">
-        <v>7.072357263990954E-2</v>
-      </c>
-      <c r="C101" s="1">
-        <v>4.853240442342649E-2</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.1343871705182399</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0.13021497769289109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102">
-        <v>0.34736895830143422</v>
-      </c>
-      <c r="C102">
-        <v>0.36404675917126023</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103">
-        <v>0.5294237737967642</v>
-      </c>
-      <c r="C103">
-        <v>0.49786162326553879</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104">
-        <v>9.3911090695656604E-3</v>
-      </c>
-      <c r="C104">
-        <v>1.397072799847938E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105">
-        <v>1.9445720410350639E-2</v>
-      </c>
-      <c r="C105">
-        <v>2.0385858201862759E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106">
-        <v>7.7884958913897823E-2</v>
-      </c>
-      <c r="C106">
-        <v>8.6818095419121846E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="2">
-        <v>3685</v>
-      </c>
-      <c r="C107" s="2">
-        <v>4834.2711158599859</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108">
-        <v>13.047842643653521</v>
-      </c>
-      <c r="C108">
-        <v>69.301955921047991</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109">
-        <v>1.3710956366053659</v>
-      </c>
-      <c r="C109">
-        <v>1.3582230858271871</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0.68447077769432152</v>
-      </c>
-      <c r="C110" s="5">
-        <v>0.68192319179405259</v>
-      </c>
-      <c r="D110" s="5">
-        <v>0.62622069700880123</v>
-      </c>
-      <c r="E110" s="5">
-        <v>0.99998912009623475</v>
-      </c>
-      <c r="F110" s="5">
-        <v>0.65824713128427348</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0.93085349575304976</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" s="2">
-        <v>286</v>
-      </c>
-      <c r="C111" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="2">
-        <v>2616</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2720.6935227499798</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>110</v>
-      </c>
-      <c r="B113" s="2">
-        <v>434</v>
-      </c>
-      <c r="C113" s="2">
-        <v>626.72434688000021</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114" s="2">
-        <v>757</v>
-      </c>
-      <c r="C114" s="2">
-        <v>832.51186869999992</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="2">
-        <v>27</v>
-      </c>
-      <c r="C115" s="2">
-        <v>99.321348959999995</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>113</v>
-      </c>
-      <c r="B116" s="2">
-        <v>567</v>
-      </c>
-      <c r="C116" s="2">
-        <v>583.34135052999795</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>114</v>
-      </c>
-      <c r="B117" s="6">
-        <v>145.36370361752071</v>
-      </c>
-      <c r="C117" s="6">
-        <v>120.6959734688332</v>
-      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="31" t="str">
+        <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
+        <v>Small-Town Established Communities</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="93"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G117" xr:uid="{B8AC6F49-A85F-41C2-8B75-187D5827CD3E}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9476E368-F9A2-47B6-BFA3-FA381B41D8B7}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:H48"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
-        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project name: test_project_YubaCity</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
-        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project community type: Small-Town Established Communities</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
-        <f>VLOOKUP(lookup_helper!B86,lookup_helper!$B:$D,3,FALSE)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
-        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
-        <v>41.285465803940781</v>
-      </c>
-      <c r="B38" s="47">
-        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>61.135362311155802</v>
-      </c>
-      <c r="C38" s="47">
-        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>63.369834818958772</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:H5"/>
+  <mergeCells count="8">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:D37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A06C26-04B9-49D2-98B1-15755B05F762}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="70" t="str">
-        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project name: test_project_YubaCity</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="str">
-        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>Project community type: Small-Town Established Communities</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
-        <f>VLOOKUP("Project Pavement Condition Index (PCI)",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
-        <f>VLOOKUP("Project AADT",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>60000</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC68989-782F-4C16-9EA8-F79FF49CA3B0}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I90"/>
@@ -21759,12 +20634,12 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21775,18 +20650,18 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21805,12 +20680,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -21849,19 +20724,19 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="B86" s="97"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
+      <c r="A86" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" s="98"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="98"/>
+      <c r="E86" s="98"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="98"/>
       <c r="H86" s="67"/>
       <c r="I86" s="67"/>
     </row>
@@ -21879,15 +20754,1238 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1013.770763052209</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1364.000856776242</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3842.410877719361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2709.1952208835341</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>7127.5982283250496</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37354.023709342597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45512.183253012037</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>115470.05312773889</v>
+      </c>
+      <c r="E12" s="2">
+        <v>475047.24569611409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6491.7790361445777</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>3942.7378655082048</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22213.193547074628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.2211646586345379</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>2.8359657898456958</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.6382414187566914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.2928514056224891</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>11.725412674938291</v>
+      </c>
+      <c r="E15" s="2">
+        <v>38.186082797940898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>94.170281124498004</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>163.7723231043594</v>
+      </c>
+      <c r="E16" s="2">
+        <v>492.55290133648589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10.89180722891566</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>6.3673234849555804</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19.46065842045931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7.5514457831325306</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>9.6835892389165004</v>
+      </c>
+      <c r="E18" s="2">
+        <v>17.147198276435411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19.925100401606429</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>43.011998510238037</v>
+      </c>
+      <c r="E19" s="2">
+        <v>140.10012353515299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>238.27309236947789</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>144.64461021519989</v>
+      </c>
+      <c r="E20" s="2">
+        <v>520.32769799543757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>51.080883534136547</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>25.241365850741079</v>
+      </c>
+      <c r="E21" s="2">
+        <v>77.938922900995635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>1498</v>
+      </c>
+      <c r="E22" s="2">
+        <v>55020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>41.285465803940781</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>61.135362311155802</v>
+      </c>
+      <c r="E23">
+        <v>63.369834818958772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.474480921569314</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>1.6732642555122741</v>
+      </c>
+      <c r="E25">
+        <v>1.2819088722919141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.5714285714285719E-2</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1">
+        <v>2.7369826435246991E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.022900763358779E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>202</v>
+      </c>
+      <c r="E27">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.1232525270598122</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>0.28524510017006321</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.40140092908768138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>0.13484646194926569</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.1221919302071974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>7.8499999999999988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1175.845221386116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>145.36370361752071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.1236248623319337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.1021114271418558</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
+        <v>5.8844134774233253E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.480071598380431E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="7">
+        <v>7460.2525126650989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7">
+        <v>63.359266107107317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="7">
+        <v>39.857150159123393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1.1478152403679189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1.162867114075685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1.323087321541778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1.2010105753672351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="7">
+        <v>7460.2525126827086</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="7">
+        <v>66.431990942696686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="7">
+        <v>54.409268026535017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1.081819835884438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1.091630634013671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1.10910333948567</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1.0947187607200981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.872619731652339</v>
+      </c>
+      <c r="D65">
+        <v>7.4149284958128156E-2</v>
+      </c>
+      <c r="E65">
+        <v>7.332683167880813E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.33368336973414081</v>
+      </c>
+      <c r="D66">
+        <v>9.9496332560479198E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.1052465714535069</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="85">
+        <v>1.3624389724527719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="85">
+        <v>1.475654647382425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2.8380936198351971</v>
+      </c>
+      <c r="D70">
+        <v>1.4432109489386511</v>
+      </c>
+      <c r="E70">
+        <v>0.38506745756398192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.69863722615145762</v>
+      </c>
+      <c r="D73">
+        <v>0.34730153421679688</v>
+      </c>
+      <c r="E73">
+        <v>0.3746385676273582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1013.770763052209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2709.1952208835341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45512.183253012037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2">
+        <v>6491.7790361445777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2">
+        <v>272.66024096385541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2">
+        <v>795.25333333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12386.82514056225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1514.9185542168671</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1.2211646586345379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5.2928514056224891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2">
+        <v>94.170281124498004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="2">
+        <v>10.89180722891566</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2">
+        <v>7.5514457831325306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2">
+        <v>19.925100401606429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="2">
+        <v>238.27309236947789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="2">
+        <v>51.080883534136547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="2">
+        <v>5797</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1916</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2072.611115859987</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1769</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2761.6599999999989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="2">
+        <v>657</v>
+      </c>
+      <c r="C93" s="2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="2">
+        <v>125.11</v>
+      </c>
+      <c r="C94" s="2">
+        <v>134.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="2">
+        <v>19593</v>
+      </c>
+      <c r="C95" s="2">
+        <v>21044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="2">
+        <v>6806</v>
+      </c>
+      <c r="C96" s="2">
+        <v>7661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="2">
+        <v>10373</v>
+      </c>
+      <c r="C97" s="2">
+        <v>10477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="2">
+        <v>184</v>
+      </c>
+      <c r="C98" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="2">
+        <v>381</v>
+      </c>
+      <c r="C99" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1526</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>7.072357263990954E-2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4.853240442342649E-2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.1343871705182399</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.13021497769289109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>0.34736895830143422</v>
+      </c>
+      <c r="C102">
+        <v>0.36404675917126023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>0.5294237737967642</v>
+      </c>
+      <c r="C103">
+        <v>0.49786162326553879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>9.3911090695656604E-3</v>
+      </c>
+      <c r="C104">
+        <v>1.397072799847938E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>1.9445720410350639E-2</v>
+      </c>
+      <c r="C105">
+        <v>2.0385858201862759E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>7.7884958913897823E-2</v>
+      </c>
+      <c r="C106">
+        <v>8.6818095419121846E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3685</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4834.2711158599859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>13.047842643653521</v>
+      </c>
+      <c r="C108">
+        <v>69.301955921047991</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>1.3710956366053659</v>
+      </c>
+      <c r="C109">
+        <v>1.3582230858271871</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.68447077769432152</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.68192319179405259</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.62622069700880123</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.99998912009623475</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.65824713128427348</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.93085349575304976</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2">
+        <v>286</v>
+      </c>
+      <c r="C111" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2616</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2720.6935227499798</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2">
+        <v>434</v>
+      </c>
+      <c r="C113" s="2">
+        <v>626.72434688000021</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="2">
+        <v>757</v>
+      </c>
+      <c r="C114" s="2">
+        <v>832.51186869999992</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="2">
+        <v>27</v>
+      </c>
+      <c r="C115" s="2">
+        <v>99.321348959999995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="2">
+        <v>567</v>
+      </c>
+      <c r="C116" s="2">
+        <v>583.34135052999795</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" s="6">
+        <v>145.36370361752071</v>
+      </c>
+      <c r="C117" s="6">
+        <v>120.6959734688332</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G117" xr:uid="{B8AC6F49-A85F-41C2-8B75-187D5827CD3E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57897DFD-9194-4D6D-AE68-E488992A8706}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21908,13 +22006,13 @@
         <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
         <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
         <v>118</v>
@@ -21922,22 +22020,22 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
         <v>218</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
         <v>218</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -21957,19 +22055,19 @@
         <v>2040</v>
       </c>
       <c r="F3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
         <v>200</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>202</v>
       </c>
-      <c r="H3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I3" t="s">
-        <v>203</v>
-      </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -21977,10 +22075,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="2">
         <f>VLOOKUP($A4,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22012,10 +22110,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="1">
         <f>VLOOKUP($A5,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22042,7 +22140,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="16"/>
@@ -22055,7 +22153,7 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP($A6,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22090,10 +22188,10 @@
         <v>99</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1">
         <f>VLOOKUP($A7,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22120,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="18" t="str">
         <f>IF(SUMIFS($D$19:$D$42,$J$19:$J$42,"NB")&gt;0,"NB","EB")</f>
@@ -22136,10 +22234,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1">
         <f>VLOOKUP($A8,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22166,7 +22264,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="21">
         <f t="array" ref="Q8">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P8),$D$19:$D$42)</f>
@@ -22182,10 +22280,10 @@
         <v>101</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1">
         <f>VLOOKUP($A9,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22212,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="21">
         <f t="array" ref="Q9">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P9),$D$19:$D$42)</f>
@@ -22228,10 +22326,10 @@
         <v>102</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="1">
         <f>VLOOKUP($A10,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22266,10 +22364,10 @@
         <v>103</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1">
         <f>VLOOKUP($A11,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22308,7 +22406,7 @@
         <v>Very Low or Rural Res Density</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="2">
         <f>VLOOKUP($A12,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22347,7 +22445,7 @@
         <v>Low Density</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2">
         <f>VLOOKUP($A13,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22374,7 +22472,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="18" t="str">
         <f>IF(SUMIFS($D$19:$D$42,$J$19:$J$42,"NB")&gt;0,"NB","EB")</f>
@@ -22394,7 +22492,7 @@
         <v>Medium Density</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="2">
         <f>VLOOKUP($A14,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22421,7 +22519,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="23">
         <f t="array" ref="Q14">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P14),$D$19:$D$42)</f>
@@ -22441,7 +22539,7 @@
         <v>Med-High Density</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="2">
         <f>VLOOKUP($A15,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22468,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q15" s="23">
         <f t="array" ref="Q15">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P15),$D$19:$D$42)</f>
@@ -22488,7 +22586,7 @@
         <v>High Density</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="2">
         <f>VLOOKUP($A16,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22515,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="23">
         <f t="array" ref="Q16">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P16),$D$19:$D$42)</f>
@@ -22535,7 +22633,7 @@
         <v>Mixed Use</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="2">
         <f>VLOOKUP($A17,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22562,7 +22660,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="26">
         <f t="array" ref="Q17">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P17),$D$19:$D$42)</f>
@@ -22578,10 +22676,10 @@
         <v>114</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="2">
         <f>VLOOKUP($A18,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22608,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="65" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="63">
         <f t="array" ref="Q18">MAX(IF(ISNUMBER(SEARCH("calc_len",import!$A:$A)),import!$B:$B))</f>
@@ -22621,10 +22719,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="2">
         <f>VLOOKUP($A19,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22651,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P19" s="62" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="66">
         <f>(Q18/5280)/D118</f>
@@ -22666,10 +22764,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="2">
         <f>VLOOKUP($A20,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22696,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -22704,10 +22802,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="2">
         <f>VLOOKUP($A21,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22734,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -22742,10 +22840,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2">
         <f>VLOOKUP($A22,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22772,7 +22870,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -22780,10 +22878,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2">
         <f>VLOOKUP($A23,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22810,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -22818,10 +22916,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" s="2">
         <f>VLOOKUP($A24,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22848,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -22856,10 +22954,10 @@
         <v>42</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2">
         <f>VLOOKUP($A25,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22886,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -22894,10 +22992,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2">
         <f>VLOOKUP($A26,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22924,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -22932,10 +23030,10 @@
         <v>44</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2">
         <f>VLOOKUP($A27,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22962,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -22970,10 +23068,10 @@
         <v>45</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="2">
         <f>VLOOKUP($A28,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23000,7 +23098,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -23008,10 +23106,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29" s="2">
         <f>VLOOKUP($A29,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23038,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -23046,10 +23144,10 @@
         <v>47</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D30" s="2">
         <f>VLOOKUP($A30,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23076,7 +23174,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -23084,10 +23182,10 @@
         <v>49</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" s="2">
         <f>VLOOKUP($A31,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23114,7 +23212,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -23122,10 +23220,10 @@
         <v>50</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="2">
         <f>VLOOKUP($A32,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23152,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -23160,10 +23258,10 @@
         <v>51</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D33" s="3">
         <f>VLOOKUP($A33,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23190,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -23198,10 +23296,10 @@
         <v>52</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="3">
         <f>VLOOKUP($A34,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23228,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -23236,10 +23334,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="3">
         <f>VLOOKUP($A35,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23266,7 +23364,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -23274,10 +23372,10 @@
         <v>54</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="3">
         <f>VLOOKUP($A36,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23304,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -23312,10 +23410,10 @@
         <v>56</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2">
         <f>VLOOKUP($A37,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23342,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -23350,10 +23448,10 @@
         <v>57</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="2">
         <f>VLOOKUP($A38,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23380,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -23388,10 +23486,10 @@
         <v>58</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="3">
         <f>VLOOKUP($A39,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23418,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -23426,10 +23524,10 @@
         <v>59</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D40" s="3">
         <f>VLOOKUP($A40,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23456,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -23464,10 +23562,10 @@
         <v>60</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" s="3">
         <f>VLOOKUP($A41,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23494,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -23502,10 +23600,10 @@
         <v>61</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="3">
         <f>VLOOKUP($A42,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23532,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -23543,7 +23641,7 @@
         <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" s="2">
         <f>VLOOKUP($A43,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23578,7 +23676,7 @@
         <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44" s="2">
         <f>VLOOKUP($A44,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23613,7 +23711,7 @@
         <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="2">
         <f>VLOOKUP($A45,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23648,7 +23746,7 @@
         <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46" s="2">
         <f>VLOOKUP($A46,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23683,7 +23781,7 @@
         <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" s="2">
         <f>VLOOKUP($A47,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23718,7 +23816,7 @@
         <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D48" s="2">
         <f>VLOOKUP($A48,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23753,7 +23851,7 @@
         <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="2">
         <f>VLOOKUP($A49,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23788,7 +23886,7 @@
         <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50" s="2">
         <f>VLOOKUP($A50,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23823,7 +23921,7 @@
         <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D51" s="2">
         <f>VLOOKUP($A51,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23858,7 +23956,7 @@
         <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52" s="2">
         <f>VLOOKUP($A52,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23893,7 +23991,7 @@
         <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="2">
         <f>VLOOKUP($A53,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23928,7 +24026,7 @@
         <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54" s="2">
         <f>VLOOKUP($A54,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23960,10 +24058,10 @@
         <v>90</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55">
         <f>VLOOKUP($A55,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23995,10 +24093,10 @@
         <v>28</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56">
         <f>VLOOKUP($A56,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24030,10 +24128,10 @@
         <v>29</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D57" s="1">
         <f>VLOOKUP($A57,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)/100</f>
@@ -24065,10 +24163,10 @@
         <v>91</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D58" s="2">
         <f>VLOOKUP($A58,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24100,10 +24198,10 @@
         <v>98</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="1">
         <f>VLOOKUP($A59,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24135,10 +24233,10 @@
         <v>33</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24170,10 +24268,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24205,10 +24303,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24240,10 +24338,10 @@
         <v>105</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24275,10 +24373,10 @@
         <v>106</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D64">
         <f>VLOOKUP($A64,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24310,10 +24408,10 @@
         <v>30</v>
       </c>
       <c r="B65" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" s="81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D65" s="83">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24345,10 +24443,10 @@
         <v>34</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D66" s="2">
         <f>VLOOKUP($A66,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24380,10 +24478,10 @@
         <v>41</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="2">
         <f>VLOOKUP($A67,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24415,10 +24513,10 @@
         <v>48</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="2">
         <f>VLOOKUP($A68,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24450,10 +24548,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="2">
         <f>VLOOKUP($A69,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24485,10 +24583,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="2">
         <f>VLOOKUP($A70,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24520,10 +24618,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="2">
         <f>VLOOKUP($A71,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24555,10 +24653,10 @@
         <v>87</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="2">
         <f>VLOOKUP($A72,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24590,10 +24688,10 @@
         <v>92</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="2">
         <f>VLOOKUP($A73,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24625,10 +24723,10 @@
         <v>93</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="2">
         <f>VLOOKUP($A74,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24660,10 +24758,10 @@
         <v>94</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="2">
         <f>VLOOKUP($A75,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24695,10 +24793,10 @@
         <v>95</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="2">
         <f>VLOOKUP($A76,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24730,10 +24828,10 @@
         <v>96</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2">
         <f>VLOOKUP($A77,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24765,10 +24863,10 @@
         <v>97</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="2">
         <f>VLOOKUP($A78,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24800,10 +24898,10 @@
         <v>107</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D79" s="3">
         <f>VLOOKUP($A79,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24835,10 +24933,10 @@
         <v>88</v>
       </c>
       <c r="B80" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D80" s="83">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24870,10 +24968,10 @@
         <v>89</v>
       </c>
       <c r="B81" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C81" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" s="83">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24905,10 +25003,10 @@
         <v>104</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" s="2">
         <f>VLOOKUP($A82,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24940,10 +25038,10 @@
         <v>65</v>
       </c>
       <c r="B83" s="82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D83" s="84">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -24975,10 +25073,10 @@
         <v>66</v>
       </c>
       <c r="B84" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84" s="81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" s="84">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25010,10 +25108,10 @@
         <v>67</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D85" s="3">
         <f>VLOOKUP($A85,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25048,7 +25146,7 @@
         <v>148</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D86">
         <f>VLOOKUP($A86,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25083,7 +25181,7 @@
         <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D87">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25118,7 +25216,7 @@
         <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D88">
         <f>VLOOKUP($A88,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25153,7 +25251,7 @@
         <v>151</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D89">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25188,7 +25286,7 @@
         <v>152</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D90" s="1">
         <f>VLOOKUP($A90,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25220,10 +25318,10 @@
         <v>24</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D91">
         <f>VLOOKUP($A91,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25255,10 +25353,10 @@
         <v>25</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D92">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25290,10 +25388,10 @@
         <v>26</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D93" s="1">
         <f>VLOOKUP($A93,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25325,10 +25423,10 @@
         <v>27</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D94">
         <f>VLOOKUP($A94,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25360,10 +25458,10 @@
         <v>70</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25395,10 +25493,10 @@
         <v>71</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D96" s="53">
         <f>VLOOKUP($A96,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25425,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P96" s="28"/>
     </row>
@@ -25434,10 +25532,10 @@
         <v>72</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D97" s="53">
         <f>VLOOKUP($A97,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25464,7 +25562,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P97" s="28"/>
     </row>
@@ -25473,10 +25571,10 @@
         <v>73</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D98" s="53">
         <f>VLOOKUP($A98,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25503,7 +25601,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P98" s="28"/>
     </row>
@@ -25512,10 +25610,10 @@
         <v>74</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99" s="53">
         <f>VLOOKUP($A99,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25542,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P99" s="28"/>
     </row>
@@ -25551,10 +25649,10 @@
         <v>75</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100" s="53">
         <f>VLOOKUP($A100,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25581,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P100" s="28"/>
     </row>
@@ -25590,10 +25688,10 @@
         <v>76</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D101" s="53">
         <f>VLOOKUP($A101,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25620,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P101" s="28"/>
     </row>
@@ -25629,10 +25727,10 @@
         <v>77</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D102" s="53">
         <f>VLOOKUP($A102,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25659,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P102" s="28"/>
     </row>
@@ -25668,10 +25766,10 @@
         <v>78</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D103" s="53">
         <f>VLOOKUP($A103,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25698,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P103" s="28"/>
     </row>
@@ -25707,10 +25805,10 @@
         <v>79</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D104" s="53">
         <f>VLOOKUP($A104,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25737,7 +25835,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P104" s="28"/>
     </row>
@@ -25746,10 +25844,10 @@
         <v>80</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D105" s="53">
         <f>VLOOKUP($A105,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25776,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P105" s="28"/>
     </row>
@@ -25785,10 +25883,10 @@
         <v>81</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D106" s="53">
         <f>VLOOKUP($A106,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25815,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P106" s="28"/>
     </row>
@@ -25824,10 +25922,10 @@
         <v>82</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D107" s="53">
         <f>VLOOKUP($A107,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25854,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P107" s="28"/>
     </row>
@@ -25863,10 +25961,10 @@
         <v>83</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D108" s="53">
         <f>VLOOKUP($A108,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25893,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P108" s="28"/>
     </row>
@@ -25902,10 +26000,10 @@
         <v>84</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" s="53">
         <f>VLOOKUP($A109,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25932,7 +26030,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P109" s="28"/>
     </row>
@@ -25941,10 +26039,10 @@
         <v>85</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D110" s="53">
         <f>VLOOKUP($A110,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -25971,7 +26069,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P110" s="28"/>
     </row>
@@ -25980,10 +26078,10 @@
         <v>86</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D111" s="53">
         <f>VLOOKUP($A111,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26010,7 +26108,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P111" s="28"/>
     </row>
@@ -26022,7 +26120,7 @@
         <v>129</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP($A112,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26051,13 +26149,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP($A113,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26092,7 +26190,7 @@
         <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D114" t="str">
         <f>VLOOKUP($A114,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26127,7 +26225,7 @@
         <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D115">
         <f>VLOOKUP($A115,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26162,7 +26260,7 @@
         <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D116">
         <f>VLOOKUP($A116,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26197,7 +26295,7 @@
         <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D117">
         <f>VLOOKUP($A117,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26226,13 +26324,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D118">
         <f>VLOOKUP($A118,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26267,7 +26365,7 @@
         <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D119" t="str">
         <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -26303,280 +26401,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FC8CB5-C6A7-44CA-A479-35B28693DBAA}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:I46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="str">
-        <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
-        <v>Project Performance Assessment Report: test_project_YubaCity</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="31" t="str">
-        <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>test_project_YubaCity</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="31" t="str">
-        <f>VLOOKUP(A32,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>anyplace</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="31" t="str">
-        <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>Freeway</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="32">
-        <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="32">
-        <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="32">
-        <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="48">
-        <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>1.41</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="31" t="str">
-        <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
-        <v>Small-Town Established Communities</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="58">
-        <f ca="1">NOW()</f>
-        <v>43900.449025462964</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A37:D37"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF629FD-B5F5-4929-9892-27FAE594A353}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAA291B-9166-4BF1-AFAC-A16B7ED384D4}">
   <dimension ref="A3:I42"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26589,7 +26419,7 @@
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -26604,39 +26434,39 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="A6" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="A10" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="71"/>
@@ -26777,7 +26607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCAFD4-91AA-4A54-9D7E-20D5302EC54C}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H66"/>
@@ -26810,12 +26640,12 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26828,16 +26658,16 @@
       <c r="H41" s="72"/>
     </row>
     <row r="42" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
+      <c r="A42" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="72"/>
@@ -26861,20 +26691,20 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="97" t="s">
-        <v>304</v>
-      </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
+      <c r="A66" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26887,7 +26717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214DCB8-A904-4048-8891-634DB5071E9F}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H64"/>
@@ -26924,7 +26754,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -26953,7 +26783,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B22" s="77" t="str">
         <f>lookup_helper!Q7</f>
@@ -26966,7 +26796,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B23" s="86">
         <f>IFERROR(lookup_helper!Q9/lookup_helper!Q8,0)</f>
@@ -27007,16 +26837,16 @@
       <c r="H28" s="75"/>
     </row>
     <row r="29" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97" t="s">
-        <v>298</v>
-      </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="A29" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
@@ -27080,24 +26910,24 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
+      <c r="A61" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -27114,13 +26944,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87207DCC-1888-4FF1-B645-7715A9482FCA}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27128,6 +26958,7 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
@@ -27147,32 +26978,32 @@
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27195,34 +27026,34 @@
       <c r="C10" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
+      <c r="A12" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27246,17 +27077,17 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -27264,18 +27095,18 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="C51" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27294,12 +27125,12 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -27309,14 +27140,14 @@
     <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="7" man="1"/>
+    <brk id="42" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8A5C7-BD60-4FDC-AB65-BF967BB22109}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H70"/>
@@ -27347,20 +27178,20 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="A5" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -27377,7 +27208,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -27385,7 +27216,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -27411,7 +27242,7 @@
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27422,7 +27253,7 @@
     </row>
     <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -27430,7 +27261,7 @@
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27441,7 +27272,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:1" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -27453,7 +27284,7 @@
     <row r="67" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -27461,7 +27292,7 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -27474,7 +27305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD69D76-764D-4B96-9AC3-904BF933FEFC}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I50"/>
@@ -27511,20 +27342,20 @@
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="A5" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -27553,47 +27384,47 @@
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="56"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B47" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27612,7 +27443,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -27624,4 +27455,228 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9476E368-F9A2-47B6-BFA3-FA381B41D8B7}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="70" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="70" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <f>VLOOKUP(lookup_helper!B86,lookup_helper!$B:$D,3,FALSE)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+        <v>41.285465803940781</v>
+      </c>
+      <c r="B38" s="47">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>61.135362311155802</v>
+      </c>
+      <c r="C38" s="47">
+        <f>VLOOKUP($A36,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>63.369834818958772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="87" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="47">
+        <f>VLOOKUP($A70,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+        <v>2.1232525270598122</v>
+      </c>
+      <c r="B72" s="47">
+        <f>VLOOKUP($A70,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>0.28524510017006321</v>
+      </c>
+      <c r="C72" s="47">
+        <f>VLOOKUP($A70,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>0.40140092908768138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A06C26-04B9-49D2-98B1-15755B05F762}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="70" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="70" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <f>VLOOKUP("Project Pavement Condition Index (PCI)",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
+        <f>VLOOKUP("Project AADT",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>60000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD329062-6B67-4176-ABEE-E1D18154FAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B231A5-6BCE-480D-911A-E0313C15B475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13665" yWindow="735" windowWidth="15165" windowHeight="14970" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0ATitlePg" sheetId="4" r:id="rId1"/>
@@ -26,13 +26,17 @@
     <sheet name="import" sheetId="1" r:id="rId11"/>
     <sheet name="lookup_helper" sheetId="5" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">import!$A$1:$G$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">lookup_helper!$A$3:$I$119</definedName>
     <definedName name="_Hlk20929805" localSheetId="5">'4EconProsperity'!$A$68</definedName>
     <definedName name="_Hlk20929868" localSheetId="8">'7SGR'!$A$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1ReduceVMT'!$A$1:$H$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'3Multimodal'!$A$1:$H$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'3Multimodal'!$A$1:$H$115</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'5Freight'!$A$1:$H$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'8SocioEconEquity'!$A$1:$H$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'1ReduceVMT'!$1:$2</definedName>
@@ -59,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="314">
   <si>
     <t>data_item</t>
   </si>
@@ -1032,6 +1036,18 @@
   </si>
   <si>
     <t>On project segment*</t>
+  </si>
+  <si>
+    <t>Multi-modal indicator 4: Residential Mode Split:</t>
+  </si>
+  <si>
+    <t>NOTE - The 2040 mode split shown below is based on modeled values estimated</t>
+  </si>
+  <si>
+    <t>for SACOG's 2020 MTP-SCS. As with all other 2040 values in this report, they do NOT factor in</t>
+  </si>
+  <si>
+    <t>the potential effects of the project for which this report was generated.</t>
   </si>
 </sst>
 </file>
@@ -2585,6 +2601,355 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12411111111111112"/>
+          <c:y val="3.8567493112947659E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Share of land that is Ag use within project area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>lookup_helper!$D$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lookup_helper!$D$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.1236248623319337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8390-4D02-8EE7-F8C606E9DD59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1814706704"/>
+        <c:axId val="1818653760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814706704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818653760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1818653760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814706704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2925,7 +3290,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3552,7 +3917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3973,7 +4338,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4408,7 +4773,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4843,7 +5208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8465,6 +8830,386 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residential Mode Split within 0.5mi of Project</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Location</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lookup_helper!$B$7:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Single-occupant vehicle trips</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carpool trips</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transit trips</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Biking trips</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walking trips</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lookup_helper!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34736895830143422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5294237737967642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3911090695656604E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9445720410350639E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7884958913897823E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C62D-49B8-9613-A3A302B5F080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>lookup_helper!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36404675917126023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49786162326553879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.397072799847938E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0385858201862759E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6818095419121846E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C62D-49B8-9613-A3A302B5F080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:axId val="1126743616"/>
+        <c:axId val="1440870240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1126743616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1440870240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1440870240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1126743616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -9199,7 +9944,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9939,355 +10684,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12411111111111112"/>
-          <c:y val="3.8567493112947659E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Share of land that is Ag use within project area</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>lookup_helper!$D$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$D$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.1236248623319337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8390-4D02-8EE7-F8C606E9DD59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1814706704"/>
-        <c:axId val="1818653760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1814706704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818653760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1818653760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1814706704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18672,6 +19068,49 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D56D8E-7A9C-4950-9976-B43B284F06B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>61911</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -18784,7 +19223,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18825,7 +19264,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18866,7 +19305,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18985,7 +19424,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19026,6 +19465,156 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0ATitlePg"/>
+      <sheetName val="0BUsingThisReport"/>
+      <sheetName val="3Multimodal"/>
+      <sheetName val="4EconProsperity"/>
+      <sheetName val="6Safety"/>
+      <sheetName val="8SocioEconEquity"/>
+      <sheetName val="1ReduceVMT"/>
+      <sheetName val="2ReduceCongestion"/>
+      <sheetName val="5Freight"/>
+      <sheetName val="7SGR"/>
+      <sheetName val="import"/>
+      <sheetName val="lookup_helper"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11">
+        <row r="3">
+          <cell r="D3">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Single-occupant vehicle trips</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Carpool trips</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Transit trips</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Biking trips</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Walking trips</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0ATitlePg"/>
+      <sheetName val="0BUsingThisReport"/>
+      <sheetName val="1ReduceVMT"/>
+      <sheetName val="2ReduceCongestion"/>
+      <sheetName val="3Multimodal"/>
+      <sheetName val="4EconProsperity"/>
+      <sheetName val="5Freight"/>
+      <sheetName val="6Safety"/>
+      <sheetName val="7SGR"/>
+      <sheetName val="8SocioEconEquity"/>
+      <sheetName val="import"/>
+      <sheetName val="lookup_helper"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="3">
+          <cell r="D3">
+            <v>2016</v>
+          </cell>
+          <cell r="E3">
+            <v>2040</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>0.34736895830143422</v>
+          </cell>
+          <cell r="E7">
+            <v>0.36404675917126023</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>0.5294237737967642</v>
+          </cell>
+          <cell r="E8">
+            <v>0.49786162326553879</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>9.3911090695656604E-3</v>
+          </cell>
+          <cell r="E9">
+            <v>1.397072799847938E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1.9445720410350639E-2</v>
+          </cell>
+          <cell r="E10">
+            <v>2.0385858201862759E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>7.7884958913897823E-2</v>
+          </cell>
+          <cell r="E11">
+            <v>8.6818095419121846E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20969,8 +21558,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K90" sqref="K90"/>
       <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
@@ -25934,11 +26523,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87207DCC-1888-4FF1-B645-7715A9482FCA}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25946,6 +26533,7 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="5" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -26120,6 +26708,26 @@
         <v>229</v>
       </c>
     </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="46" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A12:E12"/>
@@ -26127,10 +26735,12 @@
     <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="42" max="7" man="1"/>
+    <brk id="91" max="7" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_ArterialExp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B231A5-6BCE-480D-911A-E0313C15B475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808729FF-1413-45C0-8BB8-02B4EEB7514A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="735" windowWidth="15165" windowHeight="14970" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0ATitlePg" sheetId="4" r:id="rId1"/>
@@ -26,10 +26,6 @@
     <sheet name="import" sheetId="1" r:id="rId11"/>
     <sheet name="lookup_helper" sheetId="5" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">import!$A$1:$G$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">lookup_helper!$A$3:$I$119</definedName>
@@ -988,9 +984,6 @@
     <t>Economic Prosperity Indicator 5: Change in Ag acreage share within 0.5mi of project location</t>
   </si>
   <si>
-    <t>Safety Indicator 4: Bike + Ped Fatalities per Project Centerline Mile</t>
-  </si>
-  <si>
     <t>Bike/ped collisions per road centerline mile</t>
   </si>
   <si>
@@ -1048,6 +1041,9 @@
   </si>
   <si>
     <t>the potential effects of the project for which this report was generated.</t>
+  </si>
+  <si>
+    <t>Safety Indicator 4: Bike + Ped Collisions per Project Centerline Mile</t>
   </si>
 </sst>
 </file>
@@ -19467,156 +19463,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0ATitlePg"/>
-      <sheetName val="0BUsingThisReport"/>
-      <sheetName val="3Multimodal"/>
-      <sheetName val="4EconProsperity"/>
-      <sheetName val="6Safety"/>
-      <sheetName val="8SocioEconEquity"/>
-      <sheetName val="1ReduceVMT"/>
-      <sheetName val="2ReduceCongestion"/>
-      <sheetName val="5Freight"/>
-      <sheetName val="7SGR"/>
-      <sheetName val="import"/>
-      <sheetName val="lookup_helper"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="3">
-          <cell r="D3">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Single-occupant vehicle trips</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Carpool trips</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Transit trips</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Biking trips</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Walking trips</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0ATitlePg"/>
-      <sheetName val="0BUsingThisReport"/>
-      <sheetName val="1ReduceVMT"/>
-      <sheetName val="2ReduceCongestion"/>
-      <sheetName val="3Multimodal"/>
-      <sheetName val="4EconProsperity"/>
-      <sheetName val="5Freight"/>
-      <sheetName val="6Safety"/>
-      <sheetName val="7SGR"/>
-      <sheetName val="8SocioEconEquity"/>
-      <sheetName val="import"/>
-      <sheetName val="lookup_helper"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="3">
-          <cell r="D3">
-            <v>2016</v>
-          </cell>
-          <cell r="E3">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.34736895830143422</v>
-          </cell>
-          <cell r="E7">
-            <v>0.36404675917126023</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.5294237737967642</v>
-          </cell>
-          <cell r="E8">
-            <v>0.49786162326553879</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>9.3911090695656604E-3</v>
-          </cell>
-          <cell r="E9">
-            <v>1.397072799847938E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>1.9445720410350639E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>2.0385858201862759E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>7.7884958913897823E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>8.6818095419121846E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20123,7 +19969,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -21561,7 +21407,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K90" sqref="K90"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24929,7 +24775,7 @@
         <v>25</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
         <v>205</v>
@@ -26015,7 +25861,7 @@
     </row>
     <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
@@ -26033,7 +25879,7 @@
     </row>
     <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
@@ -26710,22 +26556,22 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -27059,8 +26905,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27124,7 +26970,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -27137,7 +26983,7 @@
     </row>
     <row r="37" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>234</v>
@@ -27162,7 +27008,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -27172,12 +27018,12 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
